--- a/poblacion.xlsx
+++ b/poblacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\GitHub\Home-Insurance-Study-Project-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AED0B2-4B21-4337-919D-04633022C916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A842BEE-A791-448C-9EB5-B90E3F9AB533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,18 +22,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
     <t>Albacete</t>
   </si>
   <si>
-    <t>Alicante</t>
-  </si>
-  <si>
     <t>Almería</t>
   </si>
   <si>
@@ -49,9 +40,6 @@
     <t>Badajoz</t>
   </si>
   <si>
-    <t>Balears, Illes</t>
-  </si>
-  <si>
     <t>Barcelona</t>
   </si>
   <si>
@@ -79,9 +67,6 @@
     <t>Córdoba</t>
   </si>
   <si>
-    <t>Coruña, A</t>
-  </si>
-  <si>
     <t>Cuenca</t>
   </si>
   <si>
@@ -133,15 +118,9 @@
     <t>Palencia</t>
   </si>
   <si>
-    <t>Palmas, Las</t>
-  </si>
-  <si>
     <t>Pontevedra</t>
   </si>
   <si>
-    <t>Rioja, La</t>
-  </si>
-  <si>
     <t>Salamanca</t>
   </si>
   <si>
@@ -166,9 +145,6 @@
     <t>Toledo</t>
   </si>
   <si>
-    <t>Valencia</t>
-  </si>
-  <si>
     <t>Valladolid</t>
   </si>
   <si>
@@ -182,6 +158,30 @@
   </si>
   <si>
     <t>Melilla</t>
+  </si>
+  <si>
+    <t>Alicante/Alacant</t>
+  </si>
+  <si>
+    <t>Balears, (Illes)</t>
+  </si>
+  <si>
+    <t>Coruña, (A)</t>
+  </si>
+  <si>
+    <t>Rioja, (La)</t>
+  </si>
+  <si>
+    <t>Palmas, (Las)</t>
+  </si>
+  <si>
+    <t>Valencia/València</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Province</t>
+  </si>
+  <si>
+    <t>population</t>
   </si>
 </sst>
 </file>
@@ -607,7 +607,7 @@
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,10 +618,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -629,156 +629,156 @@
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <v>386464</v>
+        <v>333626</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B3" s="4">
-        <v>1881762</v>
+        <v>386464</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B4" s="4">
-        <v>731792</v>
+        <v>1881762</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5" s="4">
-        <v>333626</v>
+        <v>731792</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>1011792</v>
+        <v>158421</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>158421</v>
+        <v>669943</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B8" s="4">
-        <v>669943</v>
+        <v>1173008</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9" s="4">
-        <v>1173008</v>
+        <v>5714730</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>5714730</v>
+        <v>356055</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>1154334</v>
+        <v>389558</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>356055</v>
+        <v>1245960</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4">
-        <v>389558</v>
+        <v>587064</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4">
-        <v>1245960</v>
+        <v>492591</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4">
-        <v>584507</v>
+        <v>776789</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B16" s="4">
-        <v>587064</v>
+        <v>1120134</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>492591</v>
+        <v>195516</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="4">
-        <v>776789</v>
+        <v>786596</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4">
-        <v>1120134</v>
+        <v>921338</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4">
-        <v>195516</v>
+        <v>265588</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B21" s="4">
         <v>726033</v>
@@ -786,231 +786,231 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>786596</v>
+        <v>525835</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>921338</v>
+        <v>224264</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>265588</v>
+        <v>627190</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>525835</v>
+        <v>451706</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>224264</v>
+        <v>439727</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B27" s="4">
-        <v>627190</v>
+        <v>319796</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B28" s="4">
-        <v>451706</v>
+        <v>326013</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B29" s="4">
-        <v>439727</v>
+        <v>6751251</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B30" s="4">
-        <v>326013</v>
+        <v>1695651</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B31" s="4">
-        <v>6751251</v>
+        <v>1518486</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B32" s="4">
-        <v>1695651</v>
+        <v>661537</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B33" s="4">
-        <v>1518486</v>
+        <v>305223</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="B34" s="4">
-        <v>661537</v>
+        <v>1011792</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B35" s="4">
-        <v>305223</v>
+        <v>159123</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B36" s="4">
-        <v>159123</v>
+        <v>1128539</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B37" s="4">
-        <v>1128539</v>
+        <v>944275</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B38" s="4">
-        <v>944275</v>
+        <v>327338</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B39" s="4">
-        <v>319796</v>
+        <v>1044405</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B40" s="4">
-        <v>327338</v>
+        <v>584507</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B41" s="4">
-        <v>1044405</v>
+        <v>153663</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B42" s="4">
-        <v>153663</v>
+        <v>1947852</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B43" s="4">
-        <v>1947852</v>
+        <v>88747</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B44" s="4">
-        <v>88747</v>
+        <v>822309</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B45" s="4">
-        <v>822309</v>
+        <v>134545</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B46" s="4">
-        <v>134545</v>
+        <v>709403</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47" s="4">
-        <v>709403</v>
+        <v>2589312</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B48" s="4">
-        <v>2589312</v>
+        <v>519361</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="B49" s="4">
-        <v>519361</v>
+        <v>1154334</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B50" s="4">
         <v>168725</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B51" s="4">
         <v>967452</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B52" s="4">
         <v>83517</v>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B53" s="4">
         <v>86261</v>

--- a/poblacion.xlsx
+++ b/poblacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\GitHub\Home-Insurance-Study-Project-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A842BEE-A791-448C-9EB5-B90E3F9AB533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D851D311-0DA3-41FB-B56D-3C9E47816856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,18 +163,6 @@
     <t>Alicante/Alacant</t>
   </si>
   <si>
-    <t>Balears, (Illes)</t>
-  </si>
-  <si>
-    <t>Coruña, (A)</t>
-  </si>
-  <si>
-    <t>Rioja, (La)</t>
-  </si>
-  <si>
-    <t>Palmas, (Las)</t>
-  </si>
-  <si>
     <t>Valencia/València</t>
   </si>
   <si>
@@ -182,6 +170,18 @@
   </si>
   <si>
     <t>population</t>
+  </si>
+  <si>
+    <t>Coruña (A)</t>
+  </si>
+  <si>
+    <t>Palmas (Las)</t>
+  </si>
+  <si>
+    <t>Rioja (La)</t>
+  </si>
+  <si>
+    <t>Balears (Illes)</t>
   </si>
 </sst>
 </file>
@@ -607,7 +607,7 @@
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,50 +618,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>333626</v>
+        <v>386464</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B3" s="4">
-        <v>386464</v>
+        <v>1881762</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="B4" s="4">
-        <v>1881762</v>
+        <v>731792</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="4">
-        <v>731792</v>
+        <v>333626</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="4">
-        <v>158421</v>
+        <v>1011792</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -674,7 +674,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B8" s="4">
         <v>1173008</v>
@@ -690,26 +690,26 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4">
-        <v>356055</v>
+        <v>1154334</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="4">
-        <v>389558</v>
+        <v>356055</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4">
-        <v>1245960</v>
+        <v>584507</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -722,23 +722,23 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B14" s="4">
-        <v>492591</v>
+        <v>83517</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>776789</v>
+        <v>492591</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B16" s="4">
         <v>1120134</v>
@@ -754,26 +754,26 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B18" s="4">
-        <v>786596</v>
+        <v>389558</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B19" s="4">
-        <v>921338</v>
+        <v>1245960</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B20" s="4">
-        <v>265588</v>
+        <v>776789</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -786,258 +786,258 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B22" s="4">
-        <v>525835</v>
+        <v>786596</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B23" s="4">
-        <v>224264</v>
+        <v>921338</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B24" s="4">
-        <v>627190</v>
+        <v>265588</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B25" s="4">
-        <v>451706</v>
+        <v>525835</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B26" s="4">
-        <v>439727</v>
+        <v>224264</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B27" s="4">
-        <v>319796</v>
+        <v>627190</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B28" s="4">
-        <v>326013</v>
+        <v>451706</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B29" s="4">
-        <v>6751251</v>
+        <v>439727</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B30" s="4">
-        <v>1695651</v>
+        <v>326013</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B31" s="4">
-        <v>1518486</v>
+        <v>6751251</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B32" s="4">
-        <v>661537</v>
+        <v>86261</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B33" s="4">
-        <v>305223</v>
+        <v>1518486</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B34" s="4">
-        <v>1011792</v>
+        <v>1695651</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B35" s="4">
-        <v>159123</v>
+        <v>661537</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B36" s="4">
-        <v>1128539</v>
+        <v>305223</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="4">
-        <v>944275</v>
+        <v>159123</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B38" s="4">
-        <v>327338</v>
+        <v>1128539</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B39" s="4">
-        <v>1044405</v>
+        <v>944275</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="B40" s="4">
-        <v>584507</v>
+        <v>319796</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B41" s="4">
-        <v>153663</v>
+        <v>327338</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B42" s="4">
-        <v>1947852</v>
+        <v>1044405</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B43" s="4">
-        <v>88747</v>
+        <v>153663</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B44" s="4">
-        <v>822309</v>
+        <v>1947852</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B45" s="4">
-        <v>134545</v>
+        <v>88747</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B46" s="4">
-        <v>709403</v>
+        <v>822309</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B47" s="4">
-        <v>2589312</v>
+        <v>134545</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B48" s="4">
-        <v>519361</v>
+        <v>709403</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>1154334</v>
+        <v>2589312</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B50" s="4">
-        <v>168725</v>
+        <v>519361</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" s="4">
-        <v>967452</v>
+        <v>168725</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B52" s="4">
-        <v>83517</v>
+        <v>967452</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="B53" s="4">
-        <v>86261</v>
+        <v>158421</v>
       </c>
     </row>
   </sheetData>
